--- a/src/data/brides_data.xlsx
+++ b/src/data/brides_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Event</t>
   </si>
@@ -24,7 +24,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>DateTilme</t>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
   <si>
     <t>When is the wedding?</t>
@@ -36,12 +39,18 @@
     <t>Jul 26, 2023 and Jul 28, 2023</t>
   </si>
   <si>
+    <t>herrington.png</t>
+  </si>
+  <si>
     <t>Where is the wedding?</t>
   </si>
   <si>
     <t>The White Wedding will be at Herrington on the bay: 7151 Lake Shore Dr, North Beach, MD 20714. The Traditional Wedding will be at Khaler Hall: Old Tucker Row, Columbia, MD 21044.</t>
   </si>
   <si>
+    <t>rings.jpeg</t>
+  </si>
+  <si>
     <t>Bachelorette Party</t>
   </si>
   <si>
@@ -51,6 +60,9 @@
     <t>Feb 28, 2023</t>
   </si>
   <si>
+    <t>bachelorette_party.jpeg</t>
+  </si>
+  <si>
     <t>What are my Traditional Wedding duties?</t>
   </si>
   <si>
@@ -60,6 +72,9 @@
     <t>Jul 26, 2023</t>
   </si>
   <si>
+    <t>traditional.jpeg</t>
+  </si>
+  <si>
     <t>White wedding reharsal</t>
   </si>
   <si>
@@ -69,6 +84,9 @@
     <t>Jul 27, 2023</t>
   </si>
   <si>
+    <t>reharsal.jpeg</t>
+  </si>
+  <si>
     <t>What are my White Wedding duties?</t>
   </si>
   <si>
@@ -78,6 +96,9 @@
     <t>Jul 28, 2023</t>
   </si>
   <si>
+    <t>white_wedding.jpg</t>
+  </si>
+  <si>
     <t>Where should I rent a hotel?</t>
   </si>
   <si>
@@ -85,6 +106,9 @@
   </si>
   <si>
     <t>Jul 26, 2023 - Jul 29,2023</t>
+  </si>
+  <si>
+    <t>hotel.jpeg</t>
   </si>
 </sst>
 </file>
@@ -94,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -105,6 +129,11 @@
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,16 +150,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -362,129 +394,153 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
